--- a/Data/Reef Sediment Traps.xlsx
+++ b/Data/Reef Sediment Traps.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\samoa\REEF_SEDIMENT_TRAPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Fagaalu-Sedimentation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20055" windowHeight="8160" tabRatio="814" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20055" windowHeight="8160" tabRatio="814" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="february12" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="SedPod summar" sheetId="10" r:id="rId10"/>
     <sheet name="SedTrapsArc" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -989,11 +989,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="256398344"/>
-        <c:axId val="256394032"/>
+        <c:axId val="351681000"/>
+        <c:axId val="351678256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="256398344"/>
+        <c:axId val="351681000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256394032"/>
+        <c:crossAx val="351678256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1011,7 +1011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256394032"/>
+        <c:axId val="351678256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1024,7 +1024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256398344"/>
+        <c:crossAx val="351681000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1085,6 +1085,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1204,11 +1205,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="216213856"/>
-        <c:axId val="216208760"/>
+        <c:axId val="346659824"/>
+        <c:axId val="346666880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216213856"/>
+        <c:axId val="346659824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216208760"/>
+        <c:crossAx val="346666880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1259,7 +1260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216208760"/>
+        <c:axId val="346666880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,7 +1311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216213856"/>
+        <c:crossAx val="346659824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1404,6 +1405,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1523,11 +1525,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="216209152"/>
-        <c:axId val="216206016"/>
+        <c:axId val="346660216"/>
+        <c:axId val="346660608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216209152"/>
+        <c:axId val="346660216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,7 +1572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216206016"/>
+        <c:crossAx val="346660608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1578,7 +1580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216206016"/>
+        <c:axId val="346660608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216209152"/>
+        <c:crossAx val="346660216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1809,11 +1811,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="256400696"/>
-        <c:axId val="256758952"/>
+        <c:axId val="351679040"/>
+        <c:axId val="351676688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="256400696"/>
+        <c:axId val="351679040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,7 +1825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256758952"/>
+        <c:crossAx val="351676688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1831,7 +1833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256758952"/>
+        <c:axId val="351676688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1844,7 +1846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256400696"/>
+        <c:crossAx val="351679040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2008,11 +2010,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216216208"/>
-        <c:axId val="216216600"/>
+        <c:axId val="351675120"/>
+        <c:axId val="351675512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216216208"/>
+        <c:axId val="351675120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2022,7 +2024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216216600"/>
+        <c:crossAx val="351675512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2030,7 +2032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216216600"/>
+        <c:axId val="351675512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2061,7 +2063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216216208"/>
+        <c:crossAx val="351675120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2219,11 +2221,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216215032"/>
-        <c:axId val="216217384"/>
+        <c:axId val="346656688"/>
+        <c:axId val="346666096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216215032"/>
+        <c:axId val="346656688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,7 +2235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216217384"/>
+        <c:crossAx val="346666096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2241,7 +2243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216217384"/>
+        <c:axId val="346666096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -2254,7 +2256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216215032"/>
+        <c:crossAx val="346656688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2418,11 +2420,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216216992"/>
-        <c:axId val="216214248"/>
+        <c:axId val="346658256"/>
+        <c:axId val="346659432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216216992"/>
+        <c:axId val="346658256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216214248"/>
+        <c:crossAx val="346659432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2440,7 +2442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216214248"/>
+        <c:axId val="346659432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -2453,7 +2455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216216992"/>
+        <c:crossAx val="346658256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2614,11 +2616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216207584"/>
-        <c:axId val="216212680"/>
+        <c:axId val="346668056"/>
+        <c:axId val="346658648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216207584"/>
+        <c:axId val="346668056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2628,7 +2630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216212680"/>
+        <c:crossAx val="346658648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2636,7 +2638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216212680"/>
+        <c:axId val="346658648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -2667,7 +2669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216207584"/>
+        <c:crossAx val="346668056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2865,11 +2867,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216201704"/>
-        <c:axId val="216204056"/>
+        <c:axId val="346663744"/>
+        <c:axId val="346663352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216201704"/>
+        <c:axId val="346663744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2879,7 +2881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216204056"/>
+        <c:crossAx val="346663352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2887,7 +2889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216204056"/>
+        <c:axId val="346663352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -2900,7 +2902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216201704"/>
+        <c:crossAx val="346663744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3092,11 +3094,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216207192"/>
-        <c:axId val="216206800"/>
+        <c:axId val="346656296"/>
+        <c:axId val="346657080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216207192"/>
+        <c:axId val="346656296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3106,7 +3108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216206800"/>
+        <c:crossAx val="346657080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3114,7 +3116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216206800"/>
+        <c:axId val="346657080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -3127,7 +3129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216207192"/>
+        <c:crossAx val="346656296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3322,11 +3324,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216211504"/>
-        <c:axId val="216204448"/>
+        <c:axId val="346657472"/>
+        <c:axId val="346664136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216211504"/>
+        <c:axId val="346657472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,7 +3338,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216204448"/>
+        <c:crossAx val="346664136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3344,7 +3346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216204448"/>
+        <c:axId val="346664136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -3357,7 +3359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216211504"/>
+        <c:crossAx val="346657472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5627,8 +5629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14313,8 +14315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
